--- a/Test Data/LoginDetails.xlsx
+++ b/Test Data/LoginDetails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5ad779776ef9ddf3/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaurh\eclipse-workspace\AssignmentWeek19\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{C5DBE562-0885-4B56-92FD-9D49A448E15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67222C12-C724-497D-87BD-5864724544CD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC69126-B8A0-486F-86E7-C1CCC3A23D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3768" yWindow="504" windowWidth="17280" windowHeight="7968" xr2:uid="{15264175-F643-4A6E-999A-11670161841C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{15264175-F643-4A6E-999A-11670161841C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>username</t>
   </si>
@@ -43,34 +42,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>iron.man@gmail.com</t>
-  </si>
-  <si>
-    <t>Password2</t>
-  </si>
-  <si>
-    <t>harinder21@gmail.com</t>
-  </si>
-  <si>
     <t>Password1</t>
   </si>
   <si>
-    <t>Navjot.rehal12@gmail.com</t>
-  </si>
-  <si>
-    <t>Navjot13</t>
-  </si>
-  <si>
-    <t>sg1@gmail.com</t>
-  </si>
-  <si>
-    <t>neethu123@gmail.com</t>
-  </si>
-  <si>
-    <t>password@01</t>
-  </si>
-  <si>
-    <t>Admin@123</t>
+    <t>harinder@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -134,10 +109,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D36102F-DA66-4EFC-8F3B-C0A147AA1FB3}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,53 +430,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{964927DF-31F1-49CF-8DCF-2FEAFF3CC038}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{63CF2E23-0594-41AA-97D8-0BB895CE8A5F}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{AFBBB99C-39E7-4F31-8976-3E5A5A44C5CB}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{FB6369BD-DDD6-43F1-BEE0-E231596B8306}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{1B7E2B7A-73A4-4BB6-B968-8A2956261D02}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{BFE864D3-0232-4D1A-B23B-E2221B80555C}"/>
-    <hyperlink ref="B6" r:id="rId7" xr:uid="{A9D6BCFC-B4FB-47EB-BBA5-8A66FC551BAD}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{63CF2E23-0594-41AA-97D8-0BB895CE8A5F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
